--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911445.9425176604</v>
+        <v>-914002.2583449101</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>128.5906918204577</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.56973891764828</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247554</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>87.6215495555526</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.5286766224914</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>17.65376085597147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>215.1846125003594</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773027</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10.03076501615239</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.42027848918603</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>266.832119614542</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>163.5358524338113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12.49517055697447</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>246.161060985035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>53.7694747549375</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>54.32649042089646</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>240.5320234084492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>62.18842302760088</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>182.3203821379245</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>15.9345014072213</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652568</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796238</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796265</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728761</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E2" t="n">
-        <v>563.5047572728761</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5188524832685</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556936</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614558</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609102</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635987</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686057</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064732</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201684</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695164</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.38058137302</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507435</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275693</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547491</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341958</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>444.4359021818234</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="X4" t="n">
-        <v>693.0802617550623</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>155.0187321448628</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1853.982617026597</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1853.982617026597</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1495.716918419846</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.928665821602</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>698.9427610319945</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>283.8703108769909</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.72178906653</v>
+        <v>2325.5058629068</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.72178906653</v>
+        <v>1952.04010464572</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.582457090718</v>
+        <v>1952.04010464572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
         <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>320.1870662708817</v>
+        <v>200.6259537039249</v>
       </c>
       <c r="C7" t="n">
-        <v>320.1870662708817</v>
+        <v>200.6259537039249</v>
       </c>
       <c r="D7" t="n">
-        <v>320.1870662708817</v>
+        <v>200.6259537039249</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>200.6259537039249</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>200.6259537039249</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596502</v>
       </c>
       <c r="M7" t="n">
         <v>499.7880494588479</v>
@@ -4753,22 +4753,22 @@
         <v>831.0565485757121</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452381</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="U7" t="n">
-        <v>320.1870662708817</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="V7" t="n">
-        <v>320.1870662708817</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="W7" t="n">
-        <v>320.1870662708817</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="X7" t="n">
-        <v>320.1870662708817</v>
+        <v>603.0669976776948</v>
       </c>
       <c r="Y7" t="n">
-        <v>320.1870662708817</v>
+        <v>382.2744185341646</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2245.732315283596</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.6423967967187</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967187</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452389</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>609.2899331452389</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W10" t="n">
-        <v>360.6423967967187</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="X10" t="n">
-        <v>360.6423967967187</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.6423967967187</v>
+        <v>541.6393785387522</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409695</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130626</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>666.7308394007268</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8177458183337</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>371.9277983204233</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2392.08784073087</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,19 +5364,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5411824076624</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>298.3450831225423</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>156.6332519647404</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6373,13 +6373,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,40 +7403,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,28 +7564,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>236.6821999505499</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>367.3519867358052</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>58.81241309101657</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>24.60901596849461</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>109.5769439069152</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.180978766545735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>111.7546635373313</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>12.04875628922523</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892458</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>45.99097492814184</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>19.07741329096466</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998587.6312764989</v>
+        <v>998587.6312764988</v>
       </c>
     </row>
     <row r="3">
@@ -26323,7 +26323,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363191</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691495</v>
+        <v>11387.33216691517</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405265</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997317</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.4992699731</v>
+        <v>23427.49926997308</v>
       </c>
       <c r="P4" t="n">
         <v>23427.49926997312</v>
@@ -26470,7 +26470,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261888.663472147</v>
+        <v>-1262248.746487864</v>
       </c>
       <c r="C6" t="n">
-        <v>24255.80204723257</v>
+        <v>24255.80204723208</v>
       </c>
       <c r="D6" t="n">
-        <v>24255.80204723174</v>
+        <v>24255.80204723158</v>
       </c>
       <c r="E6" t="n">
-        <v>-220006.3167233902</v>
+        <v>-220041.054648826</v>
       </c>
       <c r="F6" t="n">
-        <v>105406.1450839648</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="G6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="H6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="I6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="J6" t="n">
-        <v>-112125.0573133126</v>
+        <v>-112159.7952387481</v>
       </c>
       <c r="K6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585293</v>
       </c>
       <c r="L6" t="n">
-        <v>79767.1535951578</v>
+        <v>79767.15359515764</v>
       </c>
       <c r="M6" t="n">
         <v>14139.84365327767</v>
@@ -26558,7 +26558,7 @@
         <v>99194.87158878957</v>
       </c>
       <c r="O6" t="n">
-        <v>99194.87158878948</v>
+        <v>99194.87158878961</v>
       </c>
       <c r="P6" t="n">
         <v>99194.87158878957</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.922018100231071e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.8120320544366</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>80.19208142452665</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>365.0800808075091</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>79.42315188696111</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292601</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>136.4031976304168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>129.6055297698422</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>98.44077215646553</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>222.7020862222423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>154.7516505416534</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>40.36193735155604</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,7 +31844,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614906</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394724</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
